--- a/CodeSystem-CSPertinenciaInterconsulta.xlsx
+++ b/CodeSystem-CSPertinenciaInterconsulta.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="45">
   <si>
     <t>Property</t>
   </si>
@@ -120,25 +120,31 @@
     <t>Count</t>
   </si>
   <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>Level</t>
+  </si>
+  <si>
+    <t>Code</t>
+  </si>
+  <si>
+    <t>Display</t>
+  </si>
+  <si>
+    <t>Definition</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>Pertinente</t>
+  </si>
+  <si>
     <t>2</t>
   </si>
   <si>
-    <t>Level</t>
-  </si>
-  <si>
-    <t>Code</t>
-  </si>
-  <si>
-    <t>Display</t>
-  </si>
-  <si>
-    <t>Definition</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>Pertinente Incompleta</t>
+    <t>Incompleta</t>
   </si>
   <si>
     <t>No Pertinente</t>
@@ -454,7 +460,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -491,12 +497,24 @@
         <v>40</v>
       </c>
       <c r="B3" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="C3" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="D3" s="2"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="B4" t="s" s="2">
         <v>35</v>
       </c>
-      <c r="C3" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="D3" s="2"/>
+      <c r="C4" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="D4" s="2"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>

--- a/CodeSystem-CSPertinenciaInterconsulta.xlsx
+++ b/CodeSystem-CSPertinenciaInterconsulta.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.5</t>
+    <t>0.1.6</t>
   </si>
   <si>
     <t>Name</t>

--- a/CodeSystem-CSPertinenciaInterconsulta.xlsx
+++ b/CodeSystem-CSPertinenciaInterconsulta.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.6</t>
+    <t>0.1.7</t>
   </si>
   <si>
     <t>Name</t>

--- a/CodeSystem-CSPertinenciaInterconsulta.xlsx
+++ b/CodeSystem-CSPertinenciaInterconsulta.xlsx
@@ -144,7 +144,7 @@
     <t>2</t>
   </si>
   <si>
-    <t>Incompleta</t>
+    <t>Pertinente Incompleta</t>
   </si>
   <si>
     <t>No Pertinente</t>

--- a/CodeSystem-CSPertinenciaInterconsulta.xlsx
+++ b/CodeSystem-CSPertinenciaInterconsulta.xlsx
@@ -141,10 +141,10 @@
     <t>Pertinente</t>
   </si>
   <si>
+    <t>Pertinente Incompleta</t>
+  </si>
+  <si>
     <t>2</t>
-  </si>
-  <si>
-    <t>Pertinente Incompleta</t>
   </si>
   <si>
     <t>No Pertinente</t>
@@ -497,10 +497,10 @@
         <v>40</v>
       </c>
       <c r="B3" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="C3" t="s" s="2">
         <v>42</v>
-      </c>
-      <c r="C3" t="s" s="2">
-        <v>43</v>
       </c>
       <c r="D3" s="2"/>
     </row>
@@ -509,7 +509,7 @@
         <v>40</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="C4" t="s" s="2">
         <v>44</v>

--- a/CodeSystem-CSPertinenciaInterconsulta.xlsx
+++ b/CodeSystem-CSPertinenciaInterconsulta.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.7</t>
+    <t>0.1.6</t>
   </si>
   <si>
     <t>Name</t>

--- a/CodeSystem-CSPertinenciaInterconsulta.xlsx
+++ b/CodeSystem-CSPertinenciaInterconsulta.xlsx
@@ -141,13 +141,13 @@
     <t>Pertinente</t>
   </si>
   <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>No Pertinente</t>
+  </si>
+  <si>
     <t>Pertinente Incompleta</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>No Pertinente</t>
   </si>
 </sst>
 </file>
@@ -497,10 +497,10 @@
         <v>40</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="C3" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D3" s="2"/>
     </row>
@@ -509,7 +509,7 @@
         <v>40</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="C4" t="s" s="2">
         <v>44</v>

--- a/CodeSystem-CSPertinenciaInterconsulta.xlsx
+++ b/CodeSystem-CSPertinenciaInterconsulta.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.6</t>
+    <t>0.9.1</t>
   </si>
   <si>
     <t>Name</t>

--- a/CodeSystem-CSPertinenciaInterconsulta.xlsx
+++ b/CodeSystem-CSPertinenciaInterconsulta.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.9.1</t>
+    <t>0.2.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/CodeSystem-CSPertinenciaInterconsulta.xlsx
+++ b/CodeSystem-CSPertinenciaInterconsulta.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.0</t>
+    <t>0.2.1</t>
   </si>
   <si>
     <t>Name</t>
